--- a/Files/template_1.1.xlsx
+++ b/Files/template_1.1.xlsx
@@ -79,7 +79,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -445,571 +445,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDE23FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF47"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFD9E35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDE23FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF47"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFD9E35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDE23FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF47"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFD9E35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDE23FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF47"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1405,14 +840,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A10000">
-    <cfRule type="expression" dxfId="18" priority="15">
-      <formula>$F2=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>AND($F2&gt;1,$F2&lt;11)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="13">
-      <formula>$F2&gt;10</formula>
+    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+      <formula>$F2&gt;1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
+      <formula>$F2&gt;9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+      <formula>$F2&gt;20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H10000">

--- a/Files/template_1.1.xlsx
+++ b/Files/template_1.1.xlsx
@@ -79,293 +79,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDE23FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF47"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFD9E35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFD9E35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDE23FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF47"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -799,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E1"/>
+  <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -810,10 +524,11 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="59.7109375" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" customWidth="1"/>
-    <col min="7" max="7" width="0.7109375" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
@@ -829,41 +544,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H10000">
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>$G2=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$G2=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>$G2=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A10000">
-    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="15" stopIfTrue="1">
       <formula>$F2&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
       <formula>$F2&gt;9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$F2&gt;20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H10000">
-    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$G2=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>$G2=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>$G2=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$G2=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$G2=11</formula>
     </cfRule>
   </conditionalFormatting>
